--- a/seznam_potravin_appka.xlsx
+++ b/seznam_potravin_appka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recepce\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7769088-0EFA-4BAE-B5C0-1D56080EE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92455614-C32F-4DB5-887C-B2C122DFC72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4540EBA6-4E9A-4949-B6F1-24148F5F3595}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="potraviny seznam" sheetId="1" r:id="rId1"/>
     <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'potraviny seznam'!$A$1:$H$79</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="114">
   <si>
     <t>kategorie</t>
   </si>
@@ -73,12 +76,6 @@
     <t>jablka</t>
   </si>
   <si>
-    <t>jemne perlivá voda ochutená</t>
-  </si>
-  <si>
-    <t>neperlivá voda ochutená</t>
-  </si>
-  <si>
     <t>voda</t>
   </si>
   <si>
@@ -91,39 +88,9 @@
     <t>džús</t>
   </si>
   <si>
-    <t>vepřové maso</t>
-  </si>
-  <si>
     <t>maso</t>
   </si>
   <si>
-    <t>kuře celé</t>
-  </si>
-  <si>
-    <t>kurecí křídla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mleté maso </t>
-  </si>
-  <si>
-    <t>maso na polívku</t>
-  </si>
-  <si>
-    <t>kuřecí pečínky</t>
-  </si>
-  <si>
-    <t>kuřecí stehna</t>
-  </si>
-  <si>
-    <t>sýr plátky</t>
-  </si>
-  <si>
-    <t>mléčne výrobky</t>
-  </si>
-  <si>
-    <t>sýr celý blok</t>
-  </si>
-  <si>
     <t>cuketa</t>
   </si>
   <si>
@@ -139,84 +106,27 @@
     <t>mušličky</t>
   </si>
   <si>
-    <t>konverzva tuňak ve vlastní šťávě</t>
-  </si>
-  <si>
     <t>konzervy</t>
   </si>
   <si>
-    <t>boloňská omáčka ve skle</t>
-  </si>
-  <si>
-    <t>omáčky ve skle</t>
-  </si>
-  <si>
     <t xml:space="preserve">paštika </t>
   </si>
   <si>
-    <t>toaletní papír</t>
-  </si>
-  <si>
     <t>drogérie</t>
   </si>
   <si>
-    <t xml:space="preserve">prací prášok kapsle </t>
-  </si>
-  <si>
-    <t>zubní pasta</t>
-  </si>
-  <si>
-    <t>sprchový gél Old Spice</t>
-  </si>
-  <si>
-    <t>šampon na vlasy páni</t>
-  </si>
-  <si>
-    <t>šampon na vlasy dámy Pantene</t>
-  </si>
-  <si>
-    <t>zubní kefka</t>
-  </si>
-  <si>
-    <t>šunka vepřová</t>
-  </si>
-  <si>
-    <t>kuřecí šunka</t>
-  </si>
-  <si>
     <t>párky</t>
   </si>
   <si>
-    <t>masový výrobky</t>
-  </si>
-  <si>
-    <t>olej slunečnice nebo řepkový</t>
-  </si>
-  <si>
     <t>olej</t>
   </si>
   <si>
-    <t>máslo Veto či Perla</t>
-  </si>
-  <si>
     <t>máslo</t>
   </si>
   <si>
     <t>uzeniny</t>
   </si>
   <si>
-    <t>suchý salám</t>
-  </si>
-  <si>
-    <t>curk krištál</t>
-  </si>
-  <si>
-    <t>nudle do polívky</t>
-  </si>
-  <si>
-    <t>širkoké nudle</t>
-  </si>
-  <si>
     <t>káva</t>
   </si>
   <si>
@@ -238,9 +148,6 @@
     <t>trvanlivé</t>
   </si>
   <si>
-    <t>mléko čerstvé</t>
-  </si>
-  <si>
     <t>mrazák</t>
   </si>
   <si>
@@ -250,24 +157,9 @@
     <t>vajíčka</t>
   </si>
   <si>
-    <t xml:space="preserve">vajíčka velikost M </t>
-  </si>
-  <si>
     <t>chléb</t>
   </si>
   <si>
-    <t>hrašek mrazeny</t>
-  </si>
-  <si>
-    <t>mrazené výrobky</t>
-  </si>
-  <si>
-    <t>zelenina směs (mrkev,hrašek, kukuřice)</t>
-  </si>
-  <si>
-    <t>stripsy kuřecí Nowako</t>
-  </si>
-  <si>
     <t xml:space="preserve">brambory </t>
   </si>
   <si>
@@ -277,12 +169,6 @@
     <t>česnek</t>
   </si>
   <si>
-    <t>hranolky do troupy</t>
-  </si>
-  <si>
-    <t>mletý mák</t>
-  </si>
-  <si>
     <t>pochutina</t>
   </si>
   <si>
@@ -292,57 +178,15 @@
     <t>ochucovadlo</t>
   </si>
   <si>
-    <t>curk moučka</t>
-  </si>
-  <si>
     <t>povidla</t>
   </si>
   <si>
-    <t>jogurt bíly</t>
-  </si>
-  <si>
-    <t>sýr uzený plátky</t>
-  </si>
-  <si>
-    <t>kysalé zelí</t>
-  </si>
-  <si>
-    <t>prášek do pečiva</t>
-  </si>
-  <si>
-    <t>skořicový cukr</t>
-  </si>
-  <si>
-    <t>vanilinový curk</t>
-  </si>
-  <si>
-    <t>sušené droždí</t>
-  </si>
-  <si>
     <t>kečup</t>
   </si>
   <si>
-    <t>rajčata krájená v konzerve</t>
-  </si>
-  <si>
-    <t>červená čočka</t>
-  </si>
-  <si>
-    <t>sušené potraviny</t>
-  </si>
-  <si>
     <t>bulgur</t>
   </si>
   <si>
-    <t>rýže Vitana</t>
-  </si>
-  <si>
-    <t>loupaný hrách žlutý</t>
-  </si>
-  <si>
-    <t>máslové fazule v rajčatové omáčke</t>
-  </si>
-  <si>
     <t>nazev_tovaru</t>
   </si>
   <si>
@@ -358,13 +202,175 @@
     <t>množství</t>
   </si>
   <si>
-    <t>cena/ks</t>
-  </si>
-  <si>
-    <t>akce_ANO/NE</t>
-  </si>
-  <si>
     <t>obchod</t>
+  </si>
+  <si>
+    <t>jemne_perlivá_voda_ochutená</t>
+  </si>
+  <si>
+    <t>mléko_čerstvé</t>
+  </si>
+  <si>
+    <t>neperlivá_voda_ochutená</t>
+  </si>
+  <si>
+    <t>vepřové_maso</t>
+  </si>
+  <si>
+    <t>kuře_celé</t>
+  </si>
+  <si>
+    <t>kurecí_křídla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mleté_maso </t>
+  </si>
+  <si>
+    <t>maso_na_polívku</t>
+  </si>
+  <si>
+    <t>kuřecí_pečínky</t>
+  </si>
+  <si>
+    <t>kuřecí_stehna</t>
+  </si>
+  <si>
+    <t>sýr_plátky</t>
+  </si>
+  <si>
+    <t>sýr_celý_blok</t>
+  </si>
+  <si>
+    <t>nudle_do_polívky</t>
+  </si>
+  <si>
+    <t>tuňak_ve_lastní_šťávě</t>
+  </si>
+  <si>
+    <t>boloňská_omáčka_ve_skle</t>
+  </si>
+  <si>
+    <t>toaletní_papír</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prací_prášok_kapsle </t>
+  </si>
+  <si>
+    <t>zubní_pasta</t>
+  </si>
+  <si>
+    <t>sprchový_gel_Old_Spice</t>
+  </si>
+  <si>
+    <t>šampon_na_vlasy_pán</t>
+  </si>
+  <si>
+    <t>šampon_na_vlasy_dáma_Pantene</t>
+  </si>
+  <si>
+    <t>zubní_kefka</t>
+  </si>
+  <si>
+    <t>šunka_vepřová</t>
+  </si>
+  <si>
+    <t>kuřecí_šunka</t>
+  </si>
+  <si>
+    <t>máslo_Veto_nebo_Perla</t>
+  </si>
+  <si>
+    <t>olej_slunečnice_nebo_řepka</t>
+  </si>
+  <si>
+    <t>suchý_salám</t>
+  </si>
+  <si>
+    <t>curk_krištál</t>
+  </si>
+  <si>
+    <t>širkoké_nudle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vajíčka_velikost_M </t>
+  </si>
+  <si>
+    <t>hrašek_mrazeny</t>
+  </si>
+  <si>
+    <t>zelenina_směs</t>
+  </si>
+  <si>
+    <t>stripsy_kuřecí_Nowako</t>
+  </si>
+  <si>
+    <t>hranolky_do_trouby</t>
+  </si>
+  <si>
+    <t>mletý_mák</t>
+  </si>
+  <si>
+    <t>curk_moučka</t>
+  </si>
+  <si>
+    <t>jogurt_bíly</t>
+  </si>
+  <si>
+    <t>sýr_uzený_plátky</t>
+  </si>
+  <si>
+    <t>kysalé_zelí</t>
+  </si>
+  <si>
+    <t>prášek_do_pečiva</t>
+  </si>
+  <si>
+    <t>skořicový_cukr</t>
+  </si>
+  <si>
+    <t>vanilinový_curk</t>
+  </si>
+  <si>
+    <t>sušené_droždí</t>
+  </si>
+  <si>
+    <t>rajčata_krájená_konzerve</t>
+  </si>
+  <si>
+    <t>červená_čočka</t>
+  </si>
+  <si>
+    <t>rýže_Vitana</t>
+  </si>
+  <si>
+    <t>loupaný_hrách_žlutý</t>
+  </si>
+  <si>
+    <t>máslové_fazule_vrajčatové_omáčke</t>
+  </si>
+  <si>
+    <t>mléčne_výrobky</t>
+  </si>
+  <si>
+    <t>omáčky_ve_skle</t>
+  </si>
+  <si>
+    <t>masove_výrobky</t>
+  </si>
+  <si>
+    <t>mrazené_výrobky</t>
+  </si>
+  <si>
+    <t>sušené_potraviny</t>
+  </si>
+  <si>
+    <t>čerstvé_potraviny</t>
+  </si>
+  <si>
+    <t>akce_ANO_NE</t>
+  </si>
+  <si>
+    <t>cena_ks</t>
   </si>
 </sst>
 </file>
@@ -442,11 +448,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -771,48 +776,49 @@
     <col min="1" max="1" width="32.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -827,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -839,16 +845,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -860,13 +866,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -878,13 +884,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -896,13 +902,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -917,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -935,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -953,10 +959,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -971,10 +977,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -989,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1007,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1025,10 +1031,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1037,16 +1043,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1055,16 +1061,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1073,16 +1079,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1091,16 +1097,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1109,16 +1115,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1127,16 +1133,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1145,16 +1151,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1163,16 +1169,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1181,16 +1187,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1199,16 +1205,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1217,16 +1223,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1235,16 +1241,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1253,16 +1259,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1271,16 +1277,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1289,16 +1295,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1307,16 +1313,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1325,16 +1331,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1343,16 +1349,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1361,16 +1367,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1379,16 +1385,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1397,16 +1403,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1415,16 +1421,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1433,16 +1439,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1451,16 +1457,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1469,16 +1475,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1487,16 +1493,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1505,16 +1511,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1523,16 +1529,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1541,16 +1547,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1559,16 +1565,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1577,16 +1583,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1595,16 +1601,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1613,16 +1619,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1631,16 +1637,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1649,16 +1655,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1667,16 +1673,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1685,16 +1691,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1703,16 +1709,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1721,16 +1727,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1739,16 +1745,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1756,17 +1762,17 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>107</v>
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1774,17 +1780,17 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>107</v>
+      <c r="A56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1792,17 +1798,17 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>107</v>
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -1810,17 +1816,17 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>107</v>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1828,17 +1834,17 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>107</v>
+      <c r="C59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1846,17 +1852,17 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>107</v>
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1864,17 +1870,17 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>107</v>
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1882,17 +1888,17 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>107</v>
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1900,17 +1906,17 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>107</v>
+      <c r="A63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1918,17 +1924,17 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>107</v>
+      <c r="A64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1936,17 +1942,17 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>107</v>
+      <c r="A65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1954,17 +1960,17 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>107</v>
+      <c r="A66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1972,17 +1978,17 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>107</v>
+      <c r="A67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1990,17 +1996,17 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>107</v>
+      <c r="C68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2008,17 +2014,17 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>107</v>
+      <c r="A69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2026,17 +2032,17 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>107</v>
+      <c r="A70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -2044,17 +2050,17 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>107</v>
+      <c r="A71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -2062,17 +2068,17 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>107</v>
+      <c r="A72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -2080,17 +2086,17 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>107</v>
+      <c r="A73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2098,17 +2104,17 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>107</v>
+      <c r="A74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -2116,17 +2122,17 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>107</v>
+      <c r="A75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2134,17 +2140,17 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>107</v>
+      <c r="A76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2152,17 +2158,17 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>107</v>
+      <c r="A77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2170,17 +2176,17 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>107</v>
+      <c r="A78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2188,17 +2194,17 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>107</v>
+      <c r="A79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2206,6 +2212,7 @@
       <c r="H79" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H79" xr:uid="{BEDCDD98-6EC1-49EA-849D-661F24BB818B}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
